--- a/data/trans_orig/P39A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>70547</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55197</v>
+        <v>55570</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90270</v>
+        <v>88427</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08642407485411968</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06761990300890887</v>
+        <v>0.06807697503794738</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1105858617061485</v>
+        <v>0.108328323938695</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -764,19 +764,19 @@
         <v>77642</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60058</v>
+        <v>62051</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95444</v>
+        <v>97682</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08220118723230412</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06358435341553406</v>
+        <v>0.06569490600315089</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1010493700211656</v>
+        <v>0.1034182310643592</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>136</v>
@@ -785,19 +785,19 @@
         <v>148188</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>125396</v>
+        <v>124314</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>174654</v>
+        <v>173296</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08415884475851047</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07121448242526424</v>
+        <v>0.07059997967247132</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09918912098590633</v>
+        <v>0.09841783181356473</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>195201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>172233</v>
+        <v>172558</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>226066</v>
+        <v>221957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2391333604259228</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2109963297848143</v>
+        <v>0.2113938416271079</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.276945459391829</v>
+        <v>0.2719112429415739</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>125</v>
@@ -835,19 +835,19 @@
         <v>134748</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114311</v>
+        <v>114664</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>158586</v>
+        <v>160113</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1426608052428949</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.121023895985689</v>
+        <v>0.121397342334722</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.167898401727845</v>
+        <v>0.1695154084089285</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>312</v>
@@ -856,19 +856,19 @@
         <v>329949</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>293272</v>
+        <v>295943</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>362034</v>
+        <v>361627</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1873838101248519</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1665546066746319</v>
+        <v>0.1680712069968799</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.205605454120962</v>
+        <v>0.2053746903783565</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>214584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>189663</v>
+        <v>190598</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>240237</v>
+        <v>242018</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2628792137935324</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2323495305036299</v>
+        <v>0.2334947653249257</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2943047929168581</v>
+        <v>0.2964866395368165</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>195</v>
@@ -906,19 +906,19 @@
         <v>218495</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>191885</v>
+        <v>191812</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>249432</v>
+        <v>246652</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2313264658596224</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2031528093603253</v>
+        <v>0.2030761899639726</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2640796356987994</v>
+        <v>0.2611365735247363</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>397</v>
@@ -927,19 +927,19 @@
         <v>433080</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>396197</v>
+        <v>396129</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>474071</v>
+        <v>469503</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2459537730477673</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2250074192826011</v>
+        <v>0.2249689134150575</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2692335106651672</v>
+        <v>0.2666391470421314</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>86916</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70819</v>
+        <v>69649</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107892</v>
+        <v>107714</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1064781268898058</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08675766993996198</v>
+        <v>0.08532375732840772</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1321739107822828</v>
+        <v>0.1319567689033449</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>119</v>
@@ -977,19 +977,19 @@
         <v>128069</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>108808</v>
+        <v>108608</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>154134</v>
+        <v>151928</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1355900431568896</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1151977380989008</v>
+        <v>0.1149861606463357</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1631857976554864</v>
+        <v>0.1608497446085232</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>197</v>
@@ -998,19 +998,19 @@
         <v>214986</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>186443</v>
+        <v>187781</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>245601</v>
+        <v>244787</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1220942632341353</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1058840559594377</v>
+        <v>0.106644147949919</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1394814252718099</v>
+        <v>0.1390188423220828</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>249036</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>222162</v>
+        <v>223176</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>275861</v>
+        <v>277950</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3050852240366194</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2721627667717034</v>
+        <v>0.2734044550828055</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3379471557347266</v>
+        <v>0.3405056331165091</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>359</v>
@@ -1048,19 +1048,19 @@
         <v>385579</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>354633</v>
+        <v>357048</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416833</v>
+        <v>418426</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.408221498508289</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3754585117101034</v>
+        <v>0.3780149439357293</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.441311279643153</v>
+        <v>0.4429978136309775</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>589</v>
@@ -1069,19 +1069,19 @@
         <v>634615</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>592765</v>
+        <v>594166</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>675021</v>
+        <v>673198</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.360409308834735</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3366415823719106</v>
+        <v>0.3374376846485278</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3833565563810625</v>
+        <v>0.3823210450183133</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>89961</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74033</v>
+        <v>73492</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>109931</v>
+        <v>109075</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1152414744615277</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09483771558859273</v>
+        <v>0.09414488603615261</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1408238152206662</v>
+        <v>0.1397265787845986</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -1194,19 +1194,19 @@
         <v>72239</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56603</v>
+        <v>55285</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90482</v>
+        <v>90107</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07655493763161778</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05998528347759813</v>
+        <v>0.05858831645118193</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0958886840379098</v>
+        <v>0.09549092273061051</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -1215,19 +1215,19 @@
         <v>162200</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138518</v>
+        <v>140106</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>191058</v>
+        <v>189759</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09406976196553034</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08033506618338758</v>
+        <v>0.081256306661925</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1108062803275373</v>
+        <v>0.1100531750428435</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>170909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>147996</v>
+        <v>146733</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>193457</v>
+        <v>194361</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2189373270630064</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1895853809818447</v>
+        <v>0.1879666694946442</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2478217357856556</v>
+        <v>0.2489794542056761</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>143</v>
@@ -1265,19 +1265,19 @@
         <v>154609</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>131416</v>
+        <v>131794</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>179568</v>
+        <v>179334</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1638467549208673</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1392683958565025</v>
+        <v>0.1396694462706024</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1902976464801421</v>
+        <v>0.1900495485238594</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>309</v>
@@ -1286,19 +1286,19 @@
         <v>325518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>293222</v>
+        <v>292399</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>357621</v>
+        <v>360211</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1887882920185561</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1700579301841731</v>
+        <v>0.1695804493560426</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2074069250970857</v>
+        <v>0.2089088099452272</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>183983</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>161162</v>
+        <v>159283</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>208934</v>
+        <v>207516</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2356852987289266</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2064512832345918</v>
+        <v>0.2040438673831469</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2676474502961282</v>
+        <v>0.265831089118625</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>184</v>
@@ -1336,19 +1336,19 @@
         <v>196844</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>173308</v>
+        <v>172501</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>221606</v>
+        <v>223469</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2086057325862403</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1836632470300334</v>
+        <v>0.1828083886572848</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2348473941241865</v>
+        <v>0.2368215410725748</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>359</v>
@@ -1357,19 +1357,19 @@
         <v>380827</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>346530</v>
+        <v>346180</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>414171</v>
+        <v>415977</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2208656525194462</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2009744021249491</v>
+        <v>0.2007715613500698</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2402040561604104</v>
+        <v>0.2412510077417938</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>82525</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66494</v>
+        <v>64761</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101702</v>
+        <v>103055</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.105716370719797</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0851800463934473</v>
+        <v>0.08295951470265317</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1302822748717377</v>
+        <v>0.1320146146600195</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>125</v>
@@ -1407,19 +1407,19 @@
         <v>133559</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>111512</v>
+        <v>113228</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>156139</v>
+        <v>157353</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1415389769222039</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1181749629653574</v>
+        <v>0.119993230273223</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1654690688305941</v>
+        <v>0.1667548153568488</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>200</v>
@@ -1428,19 +1428,19 @@
         <v>216084</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>189185</v>
+        <v>187051</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>244301</v>
+        <v>246898</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1253207597792056</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1097203224434336</v>
+        <v>0.1084825047237711</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1416853140259858</v>
+        <v>0.1431914455148348</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>253252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>227336</v>
+        <v>226843</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>280014</v>
+        <v>282526</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3244195290267422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2912213800003863</v>
+        <v>0.2905886914958026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3587021439673267</v>
+        <v>0.3619195160590651</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>362</v>
@@ -1478,19 +1478,19 @@
         <v>386367</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>353692</v>
+        <v>354385</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>418287</v>
+        <v>418594</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4094535979390707</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.37482557215477</v>
+        <v>0.3755600513606723</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4432809436797948</v>
+        <v>0.443605392569402</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>595</v>
@@ -1499,19 +1499,19 @@
         <v>639619</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>597669</v>
+        <v>598430</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>685243</v>
+        <v>681160</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3709555337172618</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3466258749334026</v>
+        <v>0.3470673789616061</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.397415750547151</v>
+        <v>0.3950478387010629</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>55400</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42365</v>
+        <v>41831</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71627</v>
+        <v>72421</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07437710472593902</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05687666249029093</v>
+        <v>0.0561596791474343</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09616252371371492</v>
+        <v>0.09722896598734691</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -1624,19 +1624,19 @@
         <v>60546</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45332</v>
+        <v>47180</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77693</v>
+        <v>78644</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07793891684281534</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05835436226452426</v>
+        <v>0.06073280561202972</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1000110978985128</v>
+        <v>0.1012364049733821</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -1645,19 +1645,19 @@
         <v>115946</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>96714</v>
+        <v>97524</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139641</v>
+        <v>140655</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07619544402662072</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06355660751518491</v>
+        <v>0.06408915427134923</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0917668501026975</v>
+        <v>0.09243317583599373</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>149456</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>126213</v>
+        <v>129300</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>170008</v>
+        <v>172424</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2006514716762793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1694460773198491</v>
+        <v>0.1735908747149558</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2282436270000551</v>
+        <v>0.231487613601801</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>128</v>
@@ -1695,19 +1695,19 @@
         <v>135781</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>114247</v>
+        <v>116233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>158156</v>
+        <v>159022</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1747870405949985</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1470662496182808</v>
+        <v>0.1496234700629089</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2035886614622066</v>
+        <v>0.2047040013828993</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>272</v>
@@ -1716,19 +1716,19 @@
         <v>285237</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>256859</v>
+        <v>252860</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>315474</v>
+        <v>316895</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1874474311537513</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1687983413046184</v>
+        <v>0.1661701761356988</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2073175688852043</v>
+        <v>0.2082515260006531</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>179950</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>157141</v>
+        <v>157077</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>204989</v>
+        <v>205151</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2415911329807652</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2109694490257276</v>
+        <v>0.210883176314784</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2752066302537973</v>
+        <v>0.2754244240062841</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>147</v>
@@ -1766,19 +1766,19 @@
         <v>156482</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>136828</v>
+        <v>131870</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>179558</v>
+        <v>179788</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2014343552724692</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1761341793960731</v>
+        <v>0.169752164531902</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2311390475920596</v>
+        <v>0.2314355457399079</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>314</v>
@@ -1787,19 +1787,19 @@
         <v>336432</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>303736</v>
+        <v>306954</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>371095</v>
+        <v>368953</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2210907122118645</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1996038787033233</v>
+        <v>0.2017189797453232</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2438698369926416</v>
+        <v>0.2424619286774873</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>105859</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>86893</v>
+        <v>87530</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>127310</v>
+        <v>127356</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1421206442338505</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1166583242404244</v>
+        <v>0.1175132129244665</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1709196472511503</v>
+        <v>0.1709812294464338</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>104</v>
@@ -1837,19 +1837,19 @@
         <v>111397</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>92683</v>
+        <v>92487</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>132986</v>
+        <v>133095</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1433972475263834</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1193073585648173</v>
+        <v>0.1190550646220795</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1711886585359262</v>
+        <v>0.1713287040684818</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>198</v>
@@ -1858,19 +1858,19 @@
         <v>217256</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>192568</v>
+        <v>190587</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>247106</v>
+        <v>245586</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1427723624778291</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1265483160022958</v>
+        <v>0.1252465002214831</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1623886737710782</v>
+        <v>0.161389951761501</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>254189</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>226759</v>
+        <v>227233</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>278519</v>
+        <v>280964</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.341259646383166</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3044342496200022</v>
+        <v>0.3050699919941882</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3739236589395059</v>
+        <v>0.3772064921832352</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>290</v>
@@ -1908,19 +1908,19 @@
         <v>312633</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>285730</v>
+        <v>283673</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>343661</v>
+        <v>342046</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4024424397633335</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.367811320848477</v>
+        <v>0.3651633018128581</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4423843102130274</v>
+        <v>0.4403054014978705</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>527</v>
@@ -1929,19 +1929,19 @@
         <v>566822</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>529338</v>
+        <v>529983</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>603411</v>
+        <v>603248</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3724940501299344</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3478613983654656</v>
+        <v>0.3482853095757072</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3965395162508333</v>
+        <v>0.3964322771901271</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>31483</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20379</v>
+        <v>20681</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45713</v>
+        <v>45334</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07351129232358831</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04758502756251615</v>
+        <v>0.04829039073834303</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1067378521640162</v>
+        <v>0.1058544868804943</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -2054,19 +2054,19 @@
         <v>37159</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25919</v>
+        <v>28072</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50811</v>
+        <v>51053</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09231581853170036</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06439134309704563</v>
+        <v>0.06973962139487538</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1262296621876549</v>
+        <v>0.1268310213400524</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -2075,19 +2075,19 @@
         <v>68642</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53285</v>
+        <v>52310</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>87005</v>
+        <v>85319</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08262219419333092</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06413780973496151</v>
+        <v>0.06296410898456788</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1047248261242848</v>
+        <v>0.102695741136167</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>72804</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>56659</v>
+        <v>58113</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>88749</v>
+        <v>89907</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1699946126442744</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1322969618466045</v>
+        <v>0.1356923385384637</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2072258999028301</v>
+        <v>0.2099316618484791</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>69</v>
@@ -2125,19 +2125,19 @@
         <v>76790</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>59408</v>
+        <v>62595</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>96206</v>
+        <v>95704</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1907712958385192</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1475874693436564</v>
+        <v>0.1555066158707181</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2390060710662333</v>
+        <v>0.2377582021156745</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>139</v>
@@ -2146,19 +2146,19 @@
         <v>149594</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>128800</v>
+        <v>127916</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>175680</v>
+        <v>173152</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.180061035997171</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1550327689368604</v>
+        <v>0.1539682552218481</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2114601099929066</v>
+        <v>0.2084173459429129</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>100738</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>82442</v>
+        <v>82521</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>119626</v>
+        <v>120909</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2352211198015672</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1924995863944603</v>
+        <v>0.1926845560867024</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2793245740297922</v>
+        <v>0.282318751756224</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>76</v>
@@ -2196,19 +2196,19 @@
         <v>84508</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>68304</v>
+        <v>67159</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>101497</v>
+        <v>102139</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2099444448854369</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1696889322011963</v>
+        <v>0.1668454647269585</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2521501512235299</v>
+        <v>0.2537468108107327</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>164</v>
@@ -2217,19 +2217,19 @@
         <v>185246</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>160049</v>
+        <v>160237</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>211464</v>
+        <v>213620</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2229744243940061</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1926456175989905</v>
+        <v>0.1928720653503078</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2545317272845629</v>
+        <v>0.2571270943676417</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>59268</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45867</v>
+        <v>45296</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76545</v>
+        <v>75120</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1383883394730059</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1070972401276071</v>
+        <v>0.1057649501175065</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1787314539991376</v>
+        <v>0.1754040353089384</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -2267,19 +2267,19 @@
         <v>46902</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>34512</v>
+        <v>34545</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62544</v>
+        <v>62962</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1165184570457741</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08573779384439942</v>
+        <v>0.08582025984425808</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1553781610647476</v>
+        <v>0.1564166659173212</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>99</v>
@@ -2288,19 +2288,19 @@
         <v>106169</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>86435</v>
+        <v>87337</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>128448</v>
+        <v>127368</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1277922547595627</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1040388585000711</v>
+        <v>0.105124963537745</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1546087860440846</v>
+        <v>0.1533082128324464</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>163978</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>143304</v>
+        <v>143418</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>185735</v>
+        <v>185646</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3828846357575642</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3346117437841088</v>
+        <v>0.3348782936145301</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4336868391892144</v>
+        <v>0.4334787614961269</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>141</v>
@@ -2338,19 +2338,19 @@
         <v>157166</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>138080</v>
+        <v>136070</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>178446</v>
+        <v>178314</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3904499836985695</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3430335413925248</v>
+        <v>0.3380418436217122</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4433154775517257</v>
+        <v>0.4429893397223393</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>287</v>
@@ -2359,19 +2359,19 @@
         <v>321144</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>291643</v>
+        <v>288768</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>351182</v>
+        <v>349252</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3865500906559292</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3510410109363228</v>
+        <v>0.3475800003074033</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4227056440743254</v>
+        <v>0.4203833079953667</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>247390</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>217936</v>
+        <v>216554</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>278867</v>
+        <v>275267</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08930935740364257</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07867623667492414</v>
+        <v>0.07817737482252721</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1006724934754742</v>
+        <v>0.09937287745049053</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>227</v>
@@ -2484,19 +2484,19 @@
         <v>247586</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>218812</v>
+        <v>216441</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>281229</v>
+        <v>281019</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08071216373264313</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07133190947069568</v>
+        <v>0.07055918820359552</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09167984246019291</v>
+        <v>0.09161133216085475</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>461</v>
@@ -2505,19 +2505,19 @@
         <v>494976</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>450894</v>
+        <v>453473</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>538119</v>
+        <v>542692</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08479170922105261</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07724026708812654</v>
+        <v>0.07768207490732018</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09218223182845632</v>
+        <v>0.0929655688768882</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>588370</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>547195</v>
+        <v>538252</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>635218</v>
+        <v>634337</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2124048258502471</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1975403662361981</v>
+        <v>0.1943120423268711</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2293173938844859</v>
+        <v>0.2289991646244423</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>465</v>
@@ -2555,19 +2555,19 @@
         <v>501928</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>460729</v>
+        <v>463735</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>545594</v>
+        <v>545064</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1636269710641824</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1501962815002458</v>
+        <v>0.1511760653355795</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1778617919531791</v>
+        <v>0.1776890133838249</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1032</v>
@@ -2576,19 +2576,19 @@
         <v>1090298</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1029177</v>
+        <v>1029667</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1152809</v>
+        <v>1149600</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.186773067923444</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1763026866390889</v>
+        <v>0.1763867138974005</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1974814296146512</v>
+        <v>0.1969318391509915</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>679256</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>638573</v>
+        <v>628560</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>730672</v>
+        <v>729654</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2452151872643148</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2305285778013845</v>
+        <v>0.2269136300050321</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2637768516003084</v>
+        <v>0.2634090988119446</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>602</v>
@@ -2626,19 +2626,19 @@
         <v>656330</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>607038</v>
+        <v>610384</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>710404</v>
+        <v>703832</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2139613226798252</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1978925536434127</v>
+        <v>0.1989831972631078</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2315894225651695</v>
+        <v>0.2294468834426779</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1234</v>
@@ -2647,19 +2647,19 @@
         <v>1335585</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1262164</v>
+        <v>1273504</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1399371</v>
+        <v>1405442</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.228791925215989</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2162144084929972</v>
+        <v>0.2181571058396362</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2397187688680642</v>
+        <v>0.2407587146322095</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>334569</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>299488</v>
+        <v>298198</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>375735</v>
+        <v>372409</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1207811784754789</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1081170170272913</v>
+        <v>0.1076510338028082</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1356425758795561</v>
+        <v>0.1344417473759551</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>393</v>
@@ -2697,19 +2697,19 @@
         <v>419926</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>384013</v>
+        <v>381672</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>460681</v>
+        <v>457088</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.136894572331572</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1251871415963629</v>
+        <v>0.1244238344561455</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.150180452413907</v>
+        <v>0.1490090694894037</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>694</v>
@@ -2718,19 +2718,19 @@
         <v>754495</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>702569</v>
+        <v>703808</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>813272</v>
+        <v>809666</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1292484350309396</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1203533065700544</v>
+        <v>0.1205654898963256</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.139317266287785</v>
+        <v>0.1386994434869819</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>920455</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>865124</v>
+        <v>866602</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>973918</v>
+        <v>972038</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3322894510063165</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3123145829705899</v>
+        <v>0.3128481272342996</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.351590048364044</v>
+        <v>0.3509110483497364</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1152</v>
@@ -2768,19 +2768,19 @@
         <v>1241745</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1185210</v>
+        <v>1187414</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1297072</v>
+        <v>1301173</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4048049701917773</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.386374627047199</v>
+        <v>0.3870929734883035</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4228411982514687</v>
+        <v>0.4241783138506905</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1998</v>
@@ -2789,19 +2789,19 @@
         <v>2162200</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2087421</v>
+        <v>2090751</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2240351</v>
+        <v>2238456</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3703948626085748</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3575848446561572</v>
+        <v>0.3581552376043323</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3837823729288844</v>
+        <v>0.3834578032866852</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>126547</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107943</v>
+        <v>107984</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>148899</v>
+        <v>149141</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1440533448255471</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1228753580880755</v>
+        <v>0.1229218542509286</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1694968174365587</v>
+        <v>0.1697727956416195</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -3154,19 +3154,19 @@
         <v>114567</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94725</v>
+        <v>93683</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136028</v>
+        <v>136384</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1026418181669471</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08486505403784995</v>
+        <v>0.08393138234935327</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1218687768108713</v>
+        <v>0.1221878262421517</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>233</v>
@@ -3175,19 +3175,19 @@
         <v>241114</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>211639</v>
+        <v>212285</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>272252</v>
+        <v>271797</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1208800201418247</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1061030530898619</v>
+        <v>0.1064271136353618</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1364906094715805</v>
+        <v>0.1362624213179862</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>215071</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>188483</v>
+        <v>192008</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>240601</v>
+        <v>241498</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2448234758761743</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2145571993314773</v>
+        <v>0.218569982360042</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2738856555002083</v>
+        <v>0.274906182506736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>256</v>
@@ -3225,19 +3225,19 @@
         <v>267079</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>237059</v>
+        <v>237225</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>293078</v>
+        <v>297563</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2392789677224383</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2123834213123438</v>
+        <v>0.2125324465125669</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2625720898294558</v>
+        <v>0.2665899835594862</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>461</v>
@@ -3246,19 +3246,19 @@
         <v>482150</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>446428</v>
+        <v>445982</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>521518</v>
+        <v>519054</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2417208448450291</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2238119551669908</v>
+        <v>0.2235887225808731</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2614579363704934</v>
+        <v>0.2602224229941941</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>238686</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>212936</v>
+        <v>212850</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>266733</v>
+        <v>265037</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2717056202448476</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2423929859103489</v>
+        <v>0.2422956805159327</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3036320581739331</v>
+        <v>0.3017016412969758</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>272</v>
@@ -3296,19 +3296,19 @@
         <v>292638</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>263672</v>
+        <v>263105</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>324463</v>
+        <v>322348</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2621774246597726</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2362268801237319</v>
+        <v>0.2357191127362799</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.290690171073845</v>
+        <v>0.2887948010828388</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>497</v>
@@ -3317,19 +3317,19 @@
         <v>531324</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>493539</v>
+        <v>491544</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>575470</v>
+        <v>575501</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2663737721397718</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2474306731983937</v>
+        <v>0.2464303503429371</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2885061990136945</v>
+        <v>0.2885215015305013</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>118944</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100036</v>
+        <v>97978</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140077</v>
+        <v>139551</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1353979690276854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1138744928962726</v>
+        <v>0.1115318032263718</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1594550346587389</v>
+        <v>0.1588564910356638</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>141</v>
@@ -3367,19 +3367,19 @@
         <v>149238</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125498</v>
+        <v>127926</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>172541</v>
+        <v>171043</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1337041003761511</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.112435003535819</v>
+        <v>0.1146101325879565</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1545815480878304</v>
+        <v>0.1532394860641866</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>255</v>
@@ -3388,19 +3388,19 @@
         <v>268182</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>239093</v>
+        <v>237573</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>299697</v>
+        <v>297133</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1344501032666092</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1198669162659928</v>
+        <v>0.1191048043786674</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1502498381133593</v>
+        <v>0.1489644956002552</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>179226</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>157170</v>
+        <v>156002</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>205461</v>
+        <v>204957</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2040195900257455</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1789122158418996</v>
+        <v>0.1775827877272908</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2338837985796877</v>
+        <v>0.2333101650426016</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>264</v>
@@ -3438,19 +3438,19 @@
         <v>292660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>260170</v>
+        <v>260049</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322530</v>
+        <v>321716</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2621976890746908</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2330889268663834</v>
+        <v>0.2329806219015043</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2889581340158772</v>
+        <v>0.2882291109788557</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>432</v>
@@ -3459,19 +3459,19 @@
         <v>471886</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>431475</v>
+        <v>431397</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>511407</v>
+        <v>509683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2365752596067653</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2163157078013775</v>
+        <v>0.2162762749154783</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2563888201113438</v>
+        <v>0.2555245866019359</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>100287</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81961</v>
+        <v>82159</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119968</v>
+        <v>120848</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1372446175235432</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1121659898284587</v>
+        <v>0.1124360749099948</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1641794494302045</v>
+        <v>0.1653834439557689</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -3584,19 +3584,19 @@
         <v>78341</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62082</v>
+        <v>62183</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94892</v>
+        <v>96192</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09043433219532111</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07166588776929006</v>
+        <v>0.07178188767596717</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1095405906133101</v>
+        <v>0.1110414228376591</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -3605,19 +3605,19 @@
         <v>178627</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>154900</v>
+        <v>154609</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>207126</v>
+        <v>205790</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1118527591469027</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09699502356233412</v>
+        <v>0.09681297269191233</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1296981521880371</v>
+        <v>0.1288617126613334</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>186818</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>162580</v>
+        <v>163511</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>209440</v>
+        <v>213129</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2556644381045822</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2224946507584091</v>
+        <v>0.2237681293886788</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2866238972812731</v>
+        <v>0.2916729222184208</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>204</v>
@@ -3655,19 +3655,19 @@
         <v>212828</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>189520</v>
+        <v>188337</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>239469</v>
+        <v>240271</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2456831356193529</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2187770762552492</v>
+        <v>0.2174110781968558</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2764358368223259</v>
+        <v>0.2773622388406558</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>386</v>
@@ -3676,19 +3676,19 @@
         <v>399646</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>367268</v>
+        <v>366275</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>435655</v>
+        <v>433156</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2502501617902579</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2299755927571982</v>
+        <v>0.2293540775315422</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2727979873518615</v>
+        <v>0.2712336485168643</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>201137</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>176866</v>
+        <v>179329</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>224851</v>
+        <v>227493</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2752605118517714</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2420453303478541</v>
+        <v>0.2454161821694383</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3077144980961616</v>
+        <v>0.3113299558884355</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>204</v>
@@ -3726,19 +3726,19 @@
         <v>215075</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>190571</v>
+        <v>190189</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>241079</v>
+        <v>242249</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2482764794426365</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2199892503710239</v>
+        <v>0.2195485546812193</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2782947308274444</v>
+        <v>0.2796455525733954</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>402</v>
@@ -3747,19 +3747,19 @@
         <v>416212</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>381554</v>
+        <v>379798</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>450325</v>
+        <v>452341</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2606232430430223</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2389211330806099</v>
+        <v>0.2378220584696236</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2819840177393038</v>
+        <v>0.2832465439121384</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>90536</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73241</v>
+        <v>75265</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110073</v>
+        <v>111414</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1239011900125003</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1002319058889659</v>
+        <v>0.1030019311835684</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1506380597610318</v>
+        <v>0.1524726574163258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>125</v>
@@ -3797,19 +3797,19 @@
         <v>135262</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>113098</v>
+        <v>114673</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>158401</v>
+        <v>158511</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1561423249873501</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1305575182230341</v>
+        <v>0.132374999000372</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1828539975566622</v>
+        <v>0.1829801837150787</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>213</v>
@@ -3818,19 +3818,19 @@
         <v>225798</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>197535</v>
+        <v>198188</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>253234</v>
+        <v>255828</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1413901313304881</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.123692538382865</v>
+        <v>0.1241011467078405</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1585697996703106</v>
+        <v>0.1601939925113386</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>151937</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>131865</v>
+        <v>131901</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>176238</v>
+        <v>175158</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2079292425076029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.180460572865433</v>
+        <v>0.1805091440192832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2411856436748822</v>
+        <v>0.2397079619994923</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>202</v>
@@ -3868,19 +3868,19 @@
         <v>224766</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>198118</v>
+        <v>198537</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>254066</v>
+        <v>253898</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2594637277553393</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2287023891482696</v>
+        <v>0.2291854695869302</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2932867685081689</v>
+        <v>0.2930929609890077</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>351</v>
@@ -3889,19 +3889,19 @@
         <v>376703</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>344977</v>
+        <v>341063</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>410817</v>
+        <v>411818</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2358837046893291</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2160176177478932</v>
+        <v>0.2135664508586824</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2572454479042727</v>
+        <v>0.2578719566374559</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>67026</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51994</v>
+        <v>52326</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84627</v>
+        <v>82726</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09819448308801788</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07617192543401846</v>
+        <v>0.07665889474516856</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.123980641988405</v>
+        <v>0.1211956470220542</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -4014,19 +4014,19 @@
         <v>51761</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39336</v>
+        <v>38921</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67134</v>
+        <v>66704</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07598807798563387</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05774636929884637</v>
+        <v>0.05713814602036447</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09855626513940938</v>
+        <v>0.09792506730210865</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -4035,19 +4035,19 @@
         <v>118788</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>99471</v>
+        <v>99247</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141989</v>
+        <v>141402</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08710274411625478</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07293843991681102</v>
+        <v>0.07277447772547299</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1041152727968616</v>
+        <v>0.1036849823265975</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>200518</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179137</v>
+        <v>175756</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>227621</v>
+        <v>226577</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2937615924105865</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2624381082925178</v>
+        <v>0.2574860868437335</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3334691272316676</v>
+        <v>0.3319398185793244</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>174</v>
@@ -4085,19 +4085,19 @@
         <v>179031</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>157725</v>
+        <v>158227</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>201645</v>
+        <v>203974</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2628249290901412</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.231547807583609</v>
+        <v>0.2322843129228874</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2960233558456278</v>
+        <v>0.2994437262290006</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>365</v>
@@ -4106,19 +4106,19 @@
         <v>379548</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>346074</v>
+        <v>347303</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>411843</v>
+        <v>413261</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2783092311379887</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2537635537380631</v>
+        <v>0.254665316765823</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3019900323391272</v>
+        <v>0.3030293550868785</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>193684</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>170310</v>
+        <v>171391</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>218807</v>
+        <v>219125</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2837497681532785</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2495069723693086</v>
+        <v>0.2510912427352734</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3205553131101537</v>
+        <v>0.3210216472264122</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>195</v>
@@ -4156,19 +4156,19 @@
         <v>209472</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>185187</v>
+        <v>185388</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>234633</v>
+        <v>234525</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3075140476399446</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2718624725742119</v>
+        <v>0.2721583167582449</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3444512505427061</v>
+        <v>0.344293282875175</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>381</v>
@@ -4177,19 +4177,19 @@
         <v>403155</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>372365</v>
+        <v>370797</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>438747</v>
+        <v>439088</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2956196400980098</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2730419215487048</v>
+        <v>0.2718920877386622</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3217176734676103</v>
+        <v>0.3219679801071165</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>92005</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74626</v>
+        <v>74371</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109888</v>
+        <v>110852</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1347885784707966</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1093280169389619</v>
+        <v>0.1089550216500944</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1609879057376007</v>
+        <v>0.1624005182779443</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -4227,19 +4227,19 @@
         <v>106938</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>88049</v>
+        <v>85590</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>126539</v>
+        <v>127626</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1569892578405847</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1292602355551305</v>
+        <v>0.1256506624427232</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1857652826309129</v>
+        <v>0.187361088737667</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>183</v>
@@ -4248,19 +4248,19 @@
         <v>198942</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>172859</v>
+        <v>172317</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>229080</v>
+        <v>225785</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1458774575320482</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1267517421961672</v>
+        <v>0.1263538953736421</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1679762833984428</v>
+        <v>0.1655602866401979</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>129354</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110799</v>
+        <v>109546</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>152338</v>
+        <v>151492</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1895055778773204</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1623230467979175</v>
+        <v>0.1604868984458277</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2231774815431651</v>
+        <v>0.2219386590744977</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>125</v>
@@ -4298,19 +4298,19 @@
         <v>133977</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>112985</v>
+        <v>112538</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>156448</v>
+        <v>155888</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1966836874436957</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1658668873777211</v>
+        <v>0.1652115598575597</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2296729609465256</v>
+        <v>0.2288511402908106</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>250</v>
@@ -4319,19 +4319,19 @@
         <v>263330</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>237657</v>
+        <v>234794</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>293859</v>
+        <v>292262</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1930909271156986</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1742652455593474</v>
+        <v>0.1721659422405907</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.215476475473221</v>
+        <v>0.214305127589584</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>34513</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24358</v>
+        <v>23751</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47765</v>
+        <v>47205</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08551276625757363</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06035086412627844</v>
+        <v>0.05884847579265203</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1183467314785024</v>
+        <v>0.1169602026970824</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -4444,19 +4444,19 @@
         <v>35284</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23878</v>
+        <v>24582</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48305</v>
+        <v>48636</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08718607489399147</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05900326005441052</v>
+        <v>0.06074177775569466</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1193628727943776</v>
+        <v>0.1201802271913485</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>62</v>
@@ -4465,19 +4465,19 @@
         <v>69797</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52895</v>
+        <v>53842</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>88085</v>
+        <v>87971</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08635055068357537</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06544067541287422</v>
+        <v>0.06661222558525802</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.108976441288982</v>
+        <v>0.1088345416801521</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>96733</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>79446</v>
+        <v>79522</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>115390</v>
+        <v>115810</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2396731463997983</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1968420700055392</v>
+        <v>0.1970310888120198</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2859004946797353</v>
+        <v>0.2869406207112041</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>86</v>
@@ -4515,19 +4515,19 @@
         <v>91457</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>73492</v>
+        <v>75062</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>109355</v>
+        <v>108071</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2259899970169582</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1815993188793477</v>
+        <v>0.1854785440995891</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2702159035719394</v>
+        <v>0.2670435827881848</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>175</v>
@@ -4536,19 +4536,19 @@
         <v>188189</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>163355</v>
+        <v>163231</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>213235</v>
+        <v>213287</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2328223304761206</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2020982210173019</v>
+        <v>0.2019447573445105</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2638079476399111</v>
+        <v>0.2638728363194014</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>113688</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>94741</v>
+        <v>95465</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>131817</v>
+        <v>132208</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2816829513738041</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2347398651001969</v>
+        <v>0.2365333275241473</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3266019087895585</v>
+        <v>0.3275712281451297</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>96</v>
@@ -4586,19 +4586,19 @@
         <v>101204</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>83880</v>
+        <v>84210</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>120741</v>
+        <v>120625</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2500749800856802</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2072669036201978</v>
+        <v>0.208083851139281</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.298351151226011</v>
+        <v>0.2980645601319667</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>206</v>
@@ -4607,19 +4607,19 @@
         <v>214892</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>190962</v>
+        <v>190387</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>243057</v>
+        <v>239442</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2658576185533214</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2362528539030788</v>
+        <v>0.2355408988860319</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3007027476398065</v>
+        <v>0.2962306731446095</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>59340</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44995</v>
+        <v>46239</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75326</v>
+        <v>77088</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.147026376980964</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1114835684794453</v>
+        <v>0.114566166103323</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1866354388495951</v>
+        <v>0.1910009518143723</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -4657,19 +4657,19 @@
         <v>60826</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46797</v>
+        <v>47190</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>76979</v>
+        <v>78712</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1503020318036634</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1156362803000897</v>
+        <v>0.1166076784993391</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1902165406460856</v>
+        <v>0.1944966945776666</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>109</v>
@@ -4678,19 +4678,19 @@
         <v>120166</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>100380</v>
+        <v>101679</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>142660</v>
+        <v>144551</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.148666416681763</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1241870622877448</v>
+        <v>0.1257939723920278</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1764945211434617</v>
+        <v>0.1788347971305113</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>99328</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>81982</v>
+        <v>80147</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>117650</v>
+        <v>118040</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2461047589878599</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2031260878947873</v>
+        <v>0.1985783334989214</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2914994301382985</v>
+        <v>0.2924669474735699</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>105</v>
@@ -4728,19 +4728,19 @@
         <v>115923</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>97113</v>
+        <v>97700</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>136038</v>
+        <v>136033</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2864469161997067</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2399670244463919</v>
+        <v>0.2414178195674744</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3361505107185798</v>
+        <v>0.3361372106660337</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>197</v>
@@ -4749,19 +4749,19 @@
         <v>215252</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>192785</v>
+        <v>188929</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>242075</v>
+        <v>244194</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2663030836052196</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2385073565552243</v>
+        <v>0.2337375387737531</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2994879738005769</v>
+        <v>0.3021094853956354</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>328373</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>294734</v>
+        <v>290385</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>363613</v>
+        <v>358960</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1218282600770896</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1093479000535627</v>
+        <v>0.1077344939009342</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1349024023451589</v>
+        <v>0.133176039346065</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>271</v>
@@ -4874,19 +4874,19 @@
         <v>279953</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>250085</v>
+        <v>249280</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>317242</v>
+        <v>312004</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09123957688465878</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08150541079163152</v>
+        <v>0.08124314808431642</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1033926672902521</v>
+        <v>0.1016855498589682</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>583</v>
@@ -4895,19 +4895,19 @@
         <v>608326</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>564028</v>
+        <v>560023</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>656933</v>
+        <v>660023</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1055442715026601</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09785854935372773</v>
+        <v>0.09716382450893701</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1139776410888537</v>
+        <v>0.1145136538892007</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>699139</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>655232</v>
+        <v>655849</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>744107</v>
+        <v>750371</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.259384503714743</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2430948079933703</v>
+        <v>0.2433237473633529</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2760681417348898</v>
+        <v>0.2783920978668951</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>720</v>
@@ -4945,19 +4945,19 @@
         <v>750395</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>701486</v>
+        <v>706330</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>797322</v>
+        <v>798363</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2445615815774312</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2286217035300061</v>
+        <v>0.2302004481020711</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2598555430360557</v>
+        <v>0.2601950899991937</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1387</v>
@@ -4966,19 +4966,19 @@
         <v>1449533</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1385406</v>
+        <v>1380100</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1519259</v>
+        <v>1514848</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2514934711650524</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2403673735943548</v>
+        <v>0.2394467546605487</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2635907949114852</v>
+        <v>0.2628254862636407</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>747194</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>699145</v>
+        <v>706000</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>794677</v>
+        <v>798470</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2772134419911103</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2593866953806123</v>
+        <v>0.2619298879684598</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2948297028459273</v>
+        <v>0.2962370718528875</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>767</v>
@@ -5016,19 +5016,19 @@
         <v>818388</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>768839</v>
+        <v>771520</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>869191</v>
+        <v>870998</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2667214431162474</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2505728788460204</v>
+        <v>0.251446666341048</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2832784652535315</v>
+        <v>0.2838676385863447</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1486</v>
@@ -5037,19 +5037,19 @@
         <v>1565583</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1493437</v>
+        <v>1500946</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1638983</v>
+        <v>1632707</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2716279910344155</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2591107833310213</v>
+        <v>0.2604135421403433</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2843628409755428</v>
+        <v>0.283273965840528</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>360825</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>326254</v>
+        <v>325197</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>398868</v>
+        <v>395334</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1338681007387445</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.121042060304759</v>
+        <v>0.1206498608330417</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1479822759056477</v>
+        <v>0.146671061886621</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>415</v>
@@ -5087,19 +5087,19 @@
         <v>452264</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>413163</v>
+        <v>407433</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>493437</v>
+        <v>489987</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1473975699180043</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1346543006911377</v>
+        <v>0.132786678480068</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1608163436582716</v>
+        <v>0.1596920535806867</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>760</v>
@@ -5108,19 +5108,19 @@
         <v>813089</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>761605</v>
+        <v>759110</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>872871</v>
+        <v>871303</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1410705592475724</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.132138208145246</v>
+        <v>0.1317052725553794</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1514426898451492</v>
+        <v>0.15117065802299</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>559845</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>519404</v>
+        <v>515453</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>600864</v>
+        <v>600385</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2077056934783125</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1927019776276441</v>
+        <v>0.1912361135903236</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2229240530432446</v>
+        <v>0.2227462023907327</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>696</v>
@@ -5158,19 +5158,19 @@
         <v>767326</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>714097</v>
+        <v>718741</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>818170</v>
+        <v>817474</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2500798285036583</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.232731674172068</v>
+        <v>0.234245214066205</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2666502991693392</v>
+        <v>0.2664233098561196</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1230</v>
@@ -5179,19 +5179,19 @@
         <v>1327171</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1261280</v>
+        <v>1254642</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1393795</v>
+        <v>1392107</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2302637070502995</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2188316153198842</v>
+        <v>0.2176799391207168</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2418229559300643</v>
+        <v>0.2415299282347602</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>47903</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34939</v>
+        <v>34735</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66058</v>
+        <v>63757</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1366896425216598</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0996989093045008</v>
+        <v>0.09911661065416777</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1884936635354666</v>
+        <v>0.1819291825663421</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -5544,19 +5544,19 @@
         <v>50203</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38865</v>
+        <v>39127</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63540</v>
+        <v>62680</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09405029747387211</v>
+        <v>0.0940502974738721</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07280993375690964</v>
+        <v>0.07330143379314304</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1190356902654312</v>
+        <v>0.1174259383446962</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -5565,19 +5565,19 @@
         <v>98106</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81877</v>
+        <v>80283</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119604</v>
+        <v>118639</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1109495922004669</v>
+        <v>0.1109495922004668</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09259639405133649</v>
+        <v>0.09079380883400751</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1352619651626209</v>
+        <v>0.1341713998871971</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>82030</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65529</v>
+        <v>65618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100486</v>
+        <v>100552</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2340715337990181</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1869866452098422</v>
+        <v>0.1872401750341034</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2867348739850303</v>
+        <v>0.2869233307649153</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -5615,19 +5615,19 @@
         <v>101062</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85074</v>
+        <v>86126</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>118573</v>
+        <v>119390</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1893301139101853</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1593790612413009</v>
+        <v>0.1613489319714579</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2221365528152918</v>
+        <v>0.2236673209383365</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>200</v>
@@ -5636,19 +5636,19 @@
         <v>183092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>159282</v>
+        <v>160294</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>208047</v>
+        <v>205557</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2070625260835036</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1801352565212664</v>
+        <v>0.1812795299279205</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2352844883568107</v>
+        <v>0.232468179395404</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>81450</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64950</v>
+        <v>66716</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>100221</v>
+        <v>98112</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2324142091659743</v>
+        <v>0.2324142091659742</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.185332459664925</v>
+        <v>0.1903736766764157</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2859771167135131</v>
+        <v>0.2799613477800685</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>181</v>
@@ -5686,19 +5686,19 @@
         <v>125509</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>109054</v>
+        <v>108780</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>143487</v>
+        <v>142269</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2351303180234909</v>
+        <v>0.2351303180234908</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2043037617648253</v>
+        <v>0.2037898162149832</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2688107374566915</v>
+        <v>0.2665274852350294</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>264</v>
@@ -5707,19 +5707,19 @@
         <v>206959</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>184693</v>
+        <v>186243</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>229940</v>
+        <v>232781</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2340538398542965</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.208872826081332</v>
+        <v>0.2106262176916748</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2600437137580125</v>
+        <v>0.2632566808038557</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>66882</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52817</v>
+        <v>53760</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81725</v>
+        <v>82943</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1908455899440709</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1507129237499152</v>
+        <v>0.153403563056602</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2331992180357609</v>
+        <v>0.236675352357027</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>150</v>
@@ -5757,19 +5757,19 @@
         <v>91751</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77644</v>
+        <v>79122</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>106999</v>
+        <v>106760</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1718866587018301</v>
+        <v>0.17188665870183</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1454590628767951</v>
+        <v>0.1482274194323091</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2004534930990519</v>
+        <v>0.2000045365200611</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>225</v>
@@ -5778,19 +5778,19 @@
         <v>158633</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>140414</v>
+        <v>140078</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>180400</v>
+        <v>179171</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1794006710865136</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1587964909701249</v>
+        <v>0.1584173138702469</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2040174567956409</v>
+        <v>0.202627545326224</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>72185</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>57894</v>
+        <v>58967</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88664</v>
+        <v>89626</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2059790245692771</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1652003746710257</v>
+        <v>0.1682602425275044</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2530008653741692</v>
+        <v>0.2557457159973399</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>248</v>
@@ -5828,19 +5828,19 @@
         <v>165262</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>145746</v>
+        <v>149159</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>184360</v>
+        <v>184696</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3096026118906217</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2730414732104163</v>
+        <v>0.2794351429059397</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3453817677820615</v>
+        <v>0.3460117400664931</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>325</v>
@@ -5849,19 +5849,19 @@
         <v>237447</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>214668</v>
+        <v>213731</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>263233</v>
+        <v>260527</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2685333707752194</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2427723907778203</v>
+        <v>0.2417119105607273</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2976949258659148</v>
+        <v>0.2946347420495936</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>86431</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67052</v>
+        <v>67818</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>109402</v>
+        <v>111254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1075954035296925</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08347103807389081</v>
+        <v>0.08442446988320441</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1361906729058596</v>
+        <v>0.1384962407040413</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -5974,19 +5974,19 @@
         <v>70674</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58566</v>
+        <v>57862</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85997</v>
+        <v>85126</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07217191170695059</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05980667392621718</v>
+        <v>0.05908797828408126</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08781885609180595</v>
+        <v>0.08692920782755845</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>164</v>
@@ -5995,19 +5995,19 @@
         <v>157106</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135336</v>
+        <v>134879</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>185835</v>
+        <v>187087</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08813537869111543</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0759225307668248</v>
+        <v>0.0756663546385116</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1042522276872587</v>
+        <v>0.1049544110422767</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>235178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>205460</v>
+        <v>209072</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>265274</v>
+        <v>266213</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2927641046421817</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2557701512054739</v>
+        <v>0.2602658555878314</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3302301620883559</v>
+        <v>0.3313993555298369</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>330</v>
@@ -6045,19 +6045,19 @@
         <v>246784</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>222069</v>
+        <v>222908</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>272016</v>
+        <v>272635</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2520129282522706</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2267739292751236</v>
+        <v>0.227630989823632</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2777798375575038</v>
+        <v>0.2784115892808289</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>533</v>
@@ -6066,19 +6066,19 @@
         <v>481962</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>446272</v>
+        <v>444985</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>520876</v>
+        <v>522036</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2703772967939563</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2503557312033903</v>
+        <v>0.2496337321396764</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2922076525980866</v>
+        <v>0.2928583700891121</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>220194</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>193577</v>
+        <v>196011</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>247390</v>
+        <v>246683</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2741115972552781</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2409770545840285</v>
+        <v>0.2440073178662805</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3079662035918648</v>
+        <v>0.3070871547807413</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>384</v>
@@ -6116,19 +6116,19 @@
         <v>258858</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>234870</v>
+        <v>236609</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>280335</v>
+        <v>285121</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2643422216344173</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2398467447070795</v>
+        <v>0.2416217674047245</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2862748942167361</v>
+        <v>0.2911619055110284</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>613</v>
@@ -6137,19 +6137,19 @@
         <v>479052</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>442511</v>
+        <v>446621</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>515493</v>
+        <v>519288</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2687447550142405</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2482458543564507</v>
+        <v>0.2505511357059769</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2891878874255504</v>
+        <v>0.2913171078479835</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>128923</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>107148</v>
+        <v>110015</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>150672</v>
+        <v>153531</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1604916322010075</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1333840283295813</v>
+        <v>0.1369531776036123</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1875662751395713</v>
+        <v>0.1911256470082154</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>303</v>
@@ -6187,19 +6187,19 @@
         <v>185774</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>167958</v>
+        <v>167046</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>207979</v>
+        <v>207685</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.189710364282659</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1715165753405297</v>
+        <v>0.1705853973763471</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2123858341481246</v>
+        <v>0.2120856573309966</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>449</v>
@@ -6208,19 +6208,19 @@
         <v>314697</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>288298</v>
+        <v>282865</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>346831</v>
+        <v>343245</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1765430495741426</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.161733476521497</v>
+        <v>0.1586852507689455</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.194570064696904</v>
+        <v>0.1925581278449557</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>132575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>113392</v>
+        <v>111939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>155054</v>
+        <v>151711</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1650372623718402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1411580612432337</v>
+        <v>0.1393487409832511</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1930212345921448</v>
+        <v>0.1888599399722138</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>355</v>
@@ -6258,19 +6258,19 @@
         <v>217161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>198833</v>
+        <v>197089</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>238809</v>
+        <v>240272</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2217625741237026</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2030463004273337</v>
+        <v>0.2012647284323179</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2438687512351606</v>
+        <v>0.2453630859930941</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>515</v>
@@ -6279,19 +6279,19 @@
         <v>349736</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>320847</v>
+        <v>318699</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>381922</v>
+        <v>376888</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1961995199265453</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1799931486540118</v>
+        <v>0.1787880681237091</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2142556161020654</v>
+        <v>0.2114313416059547</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>58987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43878</v>
+        <v>43653</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77240</v>
+        <v>76501</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06594456622764794</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04905394602765668</v>
+        <v>0.04880218802499533</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08635019200837035</v>
+        <v>0.08552459467272418</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -6404,19 +6404,19 @@
         <v>66327</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53271</v>
+        <v>52723</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82943</v>
+        <v>82945</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07180735387530415</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05767273349919549</v>
+        <v>0.05707986233717998</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.089796480207277</v>
+        <v>0.08979909968897845</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>138</v>
@@ -6425,19 +6425,19 @@
         <v>125314</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>103933</v>
+        <v>102589</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>147292</v>
+        <v>147899</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06892300613182888</v>
+        <v>0.06892300613182886</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05716359149967132</v>
+        <v>0.05642455202319595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08101127182611038</v>
+        <v>0.08134491368815937</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>245850</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>218991</v>
+        <v>218366</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>276712</v>
+        <v>274321</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2748477518730832</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2448214994913659</v>
+        <v>0.2441221541231442</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3093497843416156</v>
+        <v>0.30667749441957</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>309</v>
@@ -6475,19 +6475,19 @@
         <v>213891</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192177</v>
+        <v>192290</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>236485</v>
+        <v>236645</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2315653794601609</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2080571236220991</v>
+        <v>0.2081796927449567</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.256026032748015</v>
+        <v>0.2561998675285034</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>537</v>
@@ -6496,19 +6496,19 @@
         <v>459741</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>424795</v>
+        <v>424712</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>499388</v>
+        <v>493743</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2528592452291826</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2336388788540013</v>
+        <v>0.2335930918217277</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2746655099544097</v>
+        <v>0.2715605382238947</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>256105</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>226422</v>
+        <v>229430</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>285181</v>
+        <v>289179</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2863122640671368</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2531284740594533</v>
+        <v>0.2564913604571413</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3188185193107266</v>
+        <v>0.3232874193505708</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>393</v>
@@ -6546,19 +6546,19 @@
         <v>257889</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>234301</v>
+        <v>234446</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>279199</v>
+        <v>279980</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.279198650877012</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2536621064283693</v>
+        <v>0.2538192662838802</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3022704437276358</v>
+        <v>0.3031153887603152</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>649</v>
@@ -6567,19 +6567,19 @@
         <v>513993</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>478663</v>
+        <v>478375</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>551567</v>
+        <v>555268</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2826983741121006</v>
+        <v>0.2826983741121005</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2632667145582824</v>
+        <v>0.2631078899268752</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3033640187734462</v>
+        <v>0.3053994151566454</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>160533</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>136862</v>
+        <v>138765</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>187190</v>
+        <v>185179</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1794677548434426</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1530044056353654</v>
+        <v>0.1551322986127048</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2092692896955751</v>
+        <v>0.2070205070935411</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>227</v>
@@ -6617,19 +6617,19 @@
         <v>149365</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>129823</v>
+        <v>131820</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>172673</v>
+        <v>168056</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1617071283595742</v>
+        <v>0.1617071283595741</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1405503664921405</v>
+        <v>0.1427124823760631</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1869411894340066</v>
+        <v>0.1819426046417482</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>408</v>
@@ -6638,19 +6638,19 @@
         <v>309898</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>277275</v>
+        <v>280603</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>340729</v>
+        <v>339118</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1704449210275268</v>
+        <v>0.1704449210275267</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1525022212219412</v>
+        <v>0.1543327797245062</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1874023649295247</v>
+        <v>0.1865161778679932</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>173020</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>151984</v>
+        <v>150260</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>196206</v>
+        <v>198145</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1934276629886894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1699103500149021</v>
+        <v>0.1679833185966482</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2193487049134881</v>
+        <v>0.2215163103767185</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>370</v>
@@ -6688,19 +6688,19 @@
         <v>236203</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>214280</v>
+        <v>216419</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>259271</v>
+        <v>260555</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2557214874279488</v>
+        <v>0.2557214874279487</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2319868450544495</v>
+        <v>0.2343025147683583</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2806955154379325</v>
+        <v>0.2820855523692566</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>570</v>
@@ -6709,19 +6709,19 @@
         <v>409223</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>377998</v>
+        <v>378189</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>439637</v>
+        <v>444119</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2250744534993612</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2079005638468965</v>
+        <v>0.2080052768368064</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2418020600815316</v>
+        <v>0.244267040938276</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>53428</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39526</v>
+        <v>41330</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71078</v>
+        <v>71210</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06557574196275145</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04851287228969458</v>
+        <v>0.05072710733520025</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08723895090869539</v>
+        <v>0.08740059357216597</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>95</v>
@@ -6834,19 +6834,19 @@
         <v>70921</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57269</v>
+        <v>58467</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85881</v>
+        <v>88059</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08783794704392769</v>
+        <v>0.08783794704392771</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07092933461890315</v>
+        <v>0.07241287903933334</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1063668281071075</v>
+        <v>0.1090639010971384</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -6855,19 +6855,19 @@
         <v>124349</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>104042</v>
+        <v>103757</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>145664</v>
+        <v>145777</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07665643025886633</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06413804636784086</v>
+        <v>0.06396225814522714</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08979615776397301</v>
+        <v>0.08986580242749963</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>169133</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>144409</v>
+        <v>144907</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>193491</v>
+        <v>195843</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.207587613008946</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1772424506030396</v>
+        <v>0.177853507903049</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2374838673080099</v>
+        <v>0.2403716191628192</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>233</v>
@@ -6905,19 +6905,19 @@
         <v>163971</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>143204</v>
+        <v>145757</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>183452</v>
+        <v>187290</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2030832211574907</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1773636531269406</v>
+        <v>0.1805256572843201</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2272114685250109</v>
+        <v>0.2319647182361908</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>389</v>
@@ -6926,19 +6926,19 @@
         <v>333103</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>300575</v>
+        <v>297898</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>369707</v>
+        <v>364963</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2053456175782355</v>
+        <v>0.2053456175782356</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1852933625516618</v>
+        <v>0.1836430299842771</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2279102268691576</v>
+        <v>0.22498567890789</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>251200</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>224030</v>
+        <v>224918</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>280357</v>
+        <v>280468</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3083139530550494</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2749665628388091</v>
+        <v>0.2760562288734933</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3441001361218178</v>
+        <v>0.3442363816960221</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>386</v>
@@ -6976,19 +6976,19 @@
         <v>250315</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>228079</v>
+        <v>227647</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>273687</v>
+        <v>274144</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3100236631361794</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2824837868499721</v>
+        <v>0.2819487175346446</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3389713295269434</v>
+        <v>0.3395372622477918</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>643</v>
@@ -6997,19 +6997,19 @@
         <v>501515</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>466359</v>
+        <v>465264</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>537885</v>
+        <v>538341</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3091649363433915</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2874928447862337</v>
+        <v>0.2868175826985864</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3315856043878703</v>
+        <v>0.3318669827632013</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>136676</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>114897</v>
+        <v>116453</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>161117</v>
+        <v>161317</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1677513465015586</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1410205465521508</v>
+        <v>0.1429305245187503</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1977493234298204</v>
+        <v>0.1979950673050913</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>204</v>
@@ -7047,19 +7047,19 @@
         <v>123356</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>106957</v>
+        <v>107864</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>142085</v>
+        <v>140772</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1527802085106311</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1324698666333218</v>
+        <v>0.1335932620197289</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1759767423082879</v>
+        <v>0.1743507864341073</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>346</v>
@@ -7068,19 +7068,19 @@
         <v>260032</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>234380</v>
+        <v>232287</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>290529</v>
+        <v>290095</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1602996806440798</v>
+        <v>0.1602996806440799</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1444866469778501</v>
+        <v>0.1431959428544853</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.179100239544428</v>
+        <v>0.1788324483780549</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>204317</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>177509</v>
+        <v>180023</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>229490</v>
+        <v>231779</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2507713454716946</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.217867952922706</v>
+        <v>0.2209541072086684</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2816684142784799</v>
+        <v>0.284477251875941</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>295</v>
@@ -7118,19 +7118,19 @@
         <v>198844</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>177107</v>
+        <v>178703</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>220028</v>
+        <v>223670</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.246274960151771</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2193532327560642</v>
+        <v>0.2213292860358299</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2725127688318823</v>
+        <v>0.2770223551716145</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>517</v>
@@ -7139,19 +7139,19 @@
         <v>403161</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>370871</v>
+        <v>371588</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>437576</v>
+        <v>438972</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2485333351754266</v>
+        <v>0.2485333351754267</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2286283157263249</v>
+        <v>0.2290699332944911</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2697489468512203</v>
+        <v>0.2706099734849591</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>246750</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>216152</v>
+        <v>213140</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>285695</v>
+        <v>279848</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.08618568675032534</v>
+        <v>0.08618568675032535</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07549843342635665</v>
+        <v>0.07444634970739486</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09978886975640061</v>
+        <v>0.09774644782018048</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>340</v>
@@ -7264,19 +7264,19 @@
         <v>258125</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>231156</v>
+        <v>231675</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>287570</v>
+        <v>289348</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07956698667581538</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07125393020768078</v>
+        <v>0.07141370660991378</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08864336981607036</v>
+        <v>0.08919140079410426</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>554</v>
@@ -7285,19 +7285,19 @@
         <v>504874</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>465252</v>
+        <v>463757</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>552854</v>
+        <v>545936</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08266981394338524</v>
+        <v>0.08266981394338523</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07618186404375524</v>
+        <v>0.07593719776291122</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09052623391597919</v>
+        <v>0.08939341967228424</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>732191</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>679406</v>
+        <v>683561</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>782737</v>
+        <v>784280</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2557425340293642</v>
+        <v>0.2557425340293643</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2373056433869744</v>
+        <v>0.2387571326130905</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2733975040002871</v>
+        <v>0.2739366469192802</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>998</v>
@@ -7335,19 +7335,19 @@
         <v>725708</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>683527</v>
+        <v>682739</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>763580</v>
+        <v>771044</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.223699463396462</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2106973289192214</v>
+        <v>0.2104544544044385</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2353735832033486</v>
+        <v>0.2376742773078897</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1659</v>
@@ -7356,19 +7356,19 @@
         <v>1457898</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1390763</v>
+        <v>1391449</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1521502</v>
+        <v>1531081</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2387211613397393</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2277282679787899</v>
+        <v>0.2278405851567858</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2491359256689549</v>
+        <v>0.2507044525042347</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>808948</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>757945</v>
+        <v>760587</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>856751</v>
+        <v>862724</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2825527574127984</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2647381430362696</v>
+        <v>0.2656607733998788</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2992494049343014</v>
+        <v>0.3013358235355889</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1344</v>
@@ -7406,19 +7406,19 @@
         <v>892571</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>851092</v>
+        <v>849687</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>940339</v>
+        <v>933379</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2751350014529393</v>
+        <v>0.2751350014529392</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2623491042158806</v>
+        <v>0.2619161137595908</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2898594352262642</v>
+        <v>0.2877141209961005</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2169</v>
@@ -7427,19 +7427,19 @@
         <v>1701519</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1632065</v>
+        <v>1636229</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1768547</v>
+        <v>1767324</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2786124237862263</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2672398176659025</v>
+        <v>0.2679215991167155</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2895879231882632</v>
+        <v>0.289387605762164</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>493014</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>453861</v>
+        <v>454022</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>533847</v>
+        <v>534689</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.17220189376904</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1585264779375694</v>
+        <v>0.158582546586049</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1864644023751748</v>
+        <v>0.1867582162017668</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>884</v>
@@ -7477,19 +7477,19 @@
         <v>550245</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>514244</v>
+        <v>514531</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>587440</v>
+        <v>586636</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1696132121090009</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1585156190228919</v>
+        <v>0.1586040990421236</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1810783094845628</v>
+        <v>0.1808305941494845</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1428</v>
@@ -7498,19 +7498,19 @@
         <v>1043259</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>992477</v>
+        <v>990078</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1101449</v>
+        <v>1099282</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.170826778511981</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.162511507851919</v>
+        <v>0.1621187801530542</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1803550017873529</v>
+        <v>0.1800001945634763</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>582097</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>537510</v>
+        <v>538919</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>625634</v>
+        <v>625905</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2033171280384721</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1877435474247441</v>
+        <v>0.1882358938842441</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2185239369614567</v>
+        <v>0.2186185131107844</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1268</v>
@@ -7548,19 +7548,19 @@
         <v>817470</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>777208</v>
+        <v>776967</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>862213</v>
+        <v>865578</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2519853363657825</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2395745659862164</v>
+        <v>0.2395000627155538</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2657772719578752</v>
+        <v>0.2668145871880885</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1927</v>
@@ -7569,19 +7569,19 @@
         <v>1399567</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1342047</v>
+        <v>1339658</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1463574</v>
+        <v>1461001</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2291698224186681</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.219751316086612</v>
+        <v>0.2193602136202328</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2396505453549153</v>
+        <v>0.2392292065085622</v>
       </c>
     </row>
     <row r="33">
